--- a/data/mall-cloud-alibaba/pms-server_structure.xlsx
+++ b/data/mall-cloud-alibaba/pms-server_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5191" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5197" uniqueCount="425">
   <si>
     <t>Class Name</t>
   </si>
@@ -873,51 +873,51 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>productCategoryMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.PmsProductCategoryMapper</t>
+  </si>
+  <si>
+    <t>productCategoryDao</t>
+  </si>
+  <si>
+    <t>productCategoryAttributeRelationMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.PmsProductCategoryAttributeRelationMapper</t>
+  </si>
+  <si>
     <t>productCategoryAttributeRelationDao</t>
   </si>
   <si>
-    <t>productCategoryMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.PmsProductCategoryMapper</t>
-  </si>
-  <si>
-    <t>productCategoryDao</t>
-  </si>
-  <si>
-    <t>productCategoryAttributeRelationMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.PmsProductCategoryAttributeRelationMapper</t>
-  </si>
-  <si>
     <t>productMapper</t>
   </si>
   <si>
     <t>com.mtcarpenter.mall.mapper.PmsProductMapper</t>
   </si>
   <si>
+    <t>productAttributeValueList</t>
+  </si>
+  <si>
     <t>subjectProductRelationList</t>
   </si>
   <si>
     <t>prefrenceAreaProductRelationList</t>
   </si>
   <si>
-    <t>productAttributeValueList</t>
-  </si>
-  <si>
     <t>productLadderList</t>
   </si>
   <si>
+    <t>memberPriceList</t>
+  </si>
+  <si>
+    <t>productFullReductionList</t>
+  </si>
+  <si>
     <t>skuStockList</t>
   </si>
   <si>
-    <t>productFullReductionList</t>
-  </si>
-  <si>
-    <t>memberPriceList</t>
-  </si>
-  <si>
     <t>productCategoryService</t>
   </si>
   <si>
@@ -927,75 +927,75 @@
     <t>productAttributeList</t>
   </si>
   <si>
+    <t>productLadderMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.PmsProductLadderMapper</t>
+  </si>
+  <si>
+    <t>skuStockMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.PmsSkuStockMapper</t>
+  </si>
+  <si>
+    <t>memberPriceMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.PmsMemberPriceMapper</t>
+  </si>
+  <si>
+    <t>productLadderDao</t>
+  </si>
+  <si>
+    <t>skuStockDao</t>
+  </si>
+  <si>
+    <t>productAttributeValueMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.PmsProductAttributeValueMapper</t>
+  </si>
+  <si>
+    <t>productDao</t>
+  </si>
+  <si>
+    <t>cmsPrefrenceAreaProductRelationClient</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.client.CmsPrefrenceAreaProductRelationClient</t>
+  </si>
+  <si>
+    <t>productAttributeValueDao</t>
+  </si>
+  <si>
+    <t>LOGGER</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
+    <t>productVertifyRecordDao</t>
+  </si>
+  <si>
+    <t>cmsSubjectProductRelationClient</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.client.CmsSubjectProductRelationClient</t>
+  </si>
+  <si>
+    <t>productFullReductionDao</t>
+  </si>
+  <si>
+    <t>memberPriceDao</t>
+  </si>
+  <si>
     <t>productFullReductionMapper</t>
   </si>
   <si>
     <t>com.mtcarpenter.mall.mapper.PmsProductFullReductionMapper</t>
   </si>
   <si>
-    <t>productAttributeValueDao</t>
-  </si>
-  <si>
-    <t>productDao</t>
-  </si>
-  <si>
-    <t>skuStockMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.PmsSkuStockMapper</t>
-  </si>
-  <si>
-    <t>memberPriceDao</t>
-  </si>
-  <si>
-    <t>cmsPrefrenceAreaProductRelationClient</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.client.CmsPrefrenceAreaProductRelationClient</t>
-  </si>
-  <si>
-    <t>cmsSubjectProductRelationClient</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.client.CmsSubjectProductRelationClient</t>
-  </si>
-  <si>
-    <t>memberPriceMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.PmsMemberPriceMapper</t>
-  </si>
-  <si>
-    <t>LOGGER</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
-    <t>productLadderDao</t>
-  </si>
-  <si>
-    <t>productAttributeValueMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.PmsProductAttributeValueMapper</t>
-  </si>
-  <si>
-    <t>skuStockDao</t>
-  </si>
-  <si>
-    <t>productLadderMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.PmsProductLadderMapper</t>
-  </si>
-  <si>
-    <t>productFullReductionDao</t>
-  </si>
-  <si>
-    <t>productVertifyRecordDao</t>
-  </si>
-  <si>
     <t>children</t>
   </si>
   <si>
@@ -1014,85 +1014,88 @@
     <t>skuStockService</t>
   </si>
   <si>
+    <t>productUnit</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>parentId</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>showStatus</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
+    <t>icon</t>
+  </si>
+  <si>
     <t>navStatus</t>
   </si>
   <si>
-    <t>showStatus</t>
-  </si>
-  <si>
     <t>productAttributeIdList</t>
   </si>
   <si>
-    <t>parentId</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>keywords</t>
   </si>
   <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>productUnit</t>
-  </si>
-  <si>
-    <t>sort</t>
+    <t>productAttributeCategoryId</t>
+  </si>
+  <si>
+    <t>inputType</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>inputList</t>
+  </si>
+  <si>
+    <t>relatedStatus</t>
+  </si>
+  <si>
+    <t>selectType</t>
+  </si>
+  <si>
+    <t>filterType</t>
   </si>
   <si>
     <t>searchType</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>inputType</t>
-  </si>
-  <si>
     <t>handAddStatus</t>
   </si>
   <si>
-    <t>productAttributeCategoryId</t>
-  </si>
-  <si>
-    <t>selectType</t>
-  </si>
-  <si>
-    <t>inputList</t>
-  </si>
-  <si>
-    <t>filterType</t>
-  </si>
-  <si>
-    <t>relatedStatus</t>
+    <t>verifyStatus</t>
+  </si>
+  <si>
+    <t>publishStatus</t>
   </si>
   <si>
     <t>productSn</t>
   </si>
   <si>
+    <t>productCategoryId</t>
+  </si>
+  <si>
     <t>brandId</t>
   </si>
   <si>
-    <t>verifyStatus</t>
-  </si>
-  <si>
-    <t>publishStatus</t>
-  </si>
-  <si>
     <t>keyword</t>
   </si>
   <si>
-    <t>productCategoryId</t>
+    <t>attributeCategoryId</t>
   </si>
   <si>
     <t>attributeId</t>
   </si>
   <si>
-    <t>attributeCategoryId</t>
+    <t>productAttributeDao</t>
   </si>
   <si>
     <t>productAttributeMapper</t>
@@ -1101,9 +1104,6 @@
     <t>com.mtcarpenter.mall.mapper.PmsProductAttributeMapper</t>
   </si>
   <si>
-    <t>productAttributeDao</t>
-  </si>
-  <si>
     <t>productAttributeCategoryMapper</t>
   </si>
   <si>
@@ -1119,16 +1119,16 @@
     <t>logo</t>
   </si>
   <si>
+    <t>bigPic</t>
+  </si>
+  <si>
+    <t>factoryStatus</t>
+  </si>
+  <si>
     <t>firstLetter</t>
   </si>
   <si>
-    <t>bigPic</t>
-  </si>
-  <si>
     <t>brandStory</t>
-  </si>
-  <si>
-    <t>factoryStatus</t>
   </si>
   <si>
     <t>brandService</t>
@@ -10465,7 +10465,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C294"/>
+  <dimension ref="A1:C296"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11356,10 +11356,10 @@
         <v>97</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>380</v>
+        <v>413</v>
       </c>
     </row>
     <row r="82">
@@ -11367,7 +11367,7 @@
         <v>97</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>380</v>
@@ -11375,13 +11375,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>413</v>
+        <v>380</v>
       </c>
     </row>
     <row r="84">
@@ -11389,10 +11389,10 @@
         <v>101</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85">
@@ -11400,7 +11400,7 @@
         <v>101</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>419</v>
@@ -11411,10 +11411,10 @@
         <v>101</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="87">
@@ -11422,10 +11422,10 @@
         <v>101</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>409</v>
+        <v>420</v>
       </c>
     </row>
     <row r="88">
@@ -11433,10 +11433,10 @@
         <v>101</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="89">
@@ -11444,10 +11444,10 @@
         <v>101</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="90">
@@ -11455,10 +11455,10 @@
         <v>101</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="91">
@@ -11466,10 +11466,10 @@
         <v>101</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>397</v>
+        <v>418</v>
       </c>
     </row>
     <row r="92">
@@ -11477,7 +11477,7 @@
         <v>101</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>397</v>
@@ -11488,7 +11488,7 @@
         <v>101</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>397</v>
@@ -11499,7 +11499,7 @@
         <v>101</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>397</v>
@@ -11510,10 +11510,10 @@
         <v>101</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>414</v>
+        <v>397</v>
       </c>
     </row>
     <row r="96">
@@ -11521,10 +11521,10 @@
         <v>101</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>393</v>
+        <v>414</v>
       </c>
     </row>
     <row r="97">
@@ -11532,10 +11532,10 @@
         <v>101</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>418</v>
+        <v>393</v>
       </c>
     </row>
     <row r="98">
@@ -11543,10 +11543,10 @@
         <v>101</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="99">
@@ -11554,7 +11554,7 @@
         <v>101</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>413</v>
@@ -11565,7 +11565,7 @@
         <v>101</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>413</v>
@@ -11573,13 +11573,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>380</v>
+        <v>413</v>
       </c>
     </row>
     <row r="102">
@@ -11587,29 +11587,29 @@
         <v>109</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>380</v>
+        <v>413</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>413</v>
+        <v>380</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>380</v>
@@ -11620,10 +11620,10 @@
         <v>113</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>402</v>
+        <v>413</v>
       </c>
     </row>
     <row r="106">
@@ -11631,10 +11631,10 @@
         <v>113</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>416</v>
+        <v>380</v>
       </c>
     </row>
     <row r="107">
@@ -11642,10 +11642,10 @@
         <v>113</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>380</v>
+        <v>402</v>
       </c>
     </row>
     <row r="108">
@@ -11653,10 +11653,10 @@
         <v>113</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>381</v>
+        <v>416</v>
       </c>
     </row>
     <row r="109">
@@ -11664,10 +11664,10 @@
         <v>113</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>414</v>
+        <v>380</v>
       </c>
     </row>
     <row r="110">
@@ -11675,10 +11675,10 @@
         <v>113</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="111">
@@ -11686,10 +11686,10 @@
         <v>113</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>397</v>
+        <v>414</v>
       </c>
     </row>
     <row r="112">
@@ -11697,43 +11697,43 @@
         <v>113</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>397</v>
+        <v>380</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>379</v>
+        <v>397</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>260</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>264</v>
+        <v>91</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>413</v>
+        <v>397</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>260</v>
+        <v>115</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>262</v>
+        <v>116</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>397</v>
+        <v>379</v>
       </c>
     </row>
     <row r="116">
@@ -11741,10 +11741,10 @@
         <v>260</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>70</v>
+        <v>264</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>382</v>
+        <v>413</v>
       </c>
     </row>
     <row r="117">
@@ -11752,7 +11752,7 @@
         <v>260</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>397</v>
@@ -11763,7 +11763,7 @@
         <v>260</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>261</v>
+        <v>70</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>382</v>
@@ -11774,10 +11774,10 @@
         <v>260</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>382</v>
+        <v>397</v>
       </c>
     </row>
     <row r="120">
@@ -11785,10 +11785,10 @@
         <v>260</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
     <row r="121">
@@ -11796,10 +11796,10 @@
         <v>260</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>67</v>
+        <v>263</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
     <row r="122">
@@ -11807,7 +11807,7 @@
         <v>260</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>397</v>
@@ -11818,7 +11818,7 @@
         <v>260</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>397</v>
@@ -11829,7 +11829,7 @@
         <v>260</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>397</v>
@@ -11840,32 +11840,32 @@
         <v>260</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>382</v>
+        <v>397</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>413</v>
+        <v>397</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="128">
@@ -11873,10 +11873,10 @@
         <v>117</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="129">
@@ -11884,10 +11884,10 @@
         <v>117</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>413</v>
+        <v>380</v>
       </c>
     </row>
     <row r="130">
@@ -11895,40 +11895,40 @@
         <v>117</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>379</v>
+        <v>413</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>379</v>
+        <v>413</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>379</v>
@@ -11939,7 +11939,7 @@
         <v>124</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>379</v>
@@ -11950,7 +11950,7 @@
         <v>124</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>379</v>
@@ -11961,7 +11961,7 @@
         <v>124</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>379</v>
@@ -11972,7 +11972,7 @@
         <v>124</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>379</v>
@@ -11983,7 +11983,7 @@
         <v>124</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>379</v>
@@ -11994,7 +11994,7 @@
         <v>124</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>379</v>
@@ -12002,10 +12002,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>379</v>
@@ -12013,7 +12013,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B141" t="s" s="0">
         <v>31</v>
@@ -12024,24 +12024,24 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>266</v>
+        <v>125</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>413</v>
+        <v>379</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>266</v>
+        <v>126</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="144">
@@ -12049,43 +12049,43 @@
         <v>266</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>44</v>
+        <v>267</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="0">
-        <v>127</v>
+        <v>266</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="0">
-        <v>128</v>
+        <v>266</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>413</v>
+        <v>397</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="0">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="148">
@@ -12093,10 +12093,10 @@
         <v>128</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>380</v>
+        <v>413</v>
       </c>
     </row>
     <row r="149">
@@ -12104,7 +12104,7 @@
         <v>128</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>380</v>
@@ -12115,7 +12115,7 @@
         <v>128</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>380</v>
@@ -12126,7 +12126,7 @@
         <v>128</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>380</v>
@@ -12137,7 +12137,7 @@
         <v>128</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>380</v>
@@ -12148,7 +12148,7 @@
         <v>128</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>380</v>
@@ -12159,7 +12159,7 @@
         <v>128</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>380</v>
@@ -12170,7 +12170,7 @@
         <v>128</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>380</v>
@@ -12181,7 +12181,7 @@
         <v>128</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>380</v>
@@ -12192,7 +12192,7 @@
         <v>128</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>380</v>
@@ -12203,7 +12203,7 @@
         <v>128</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>380</v>
@@ -12214,7 +12214,7 @@
         <v>128</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>380</v>
@@ -12225,7 +12225,7 @@
         <v>128</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>380</v>
@@ -12236,7 +12236,7 @@
         <v>128</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>380</v>
@@ -12247,7 +12247,7 @@
         <v>128</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>380</v>
@@ -12258,7 +12258,7 @@
         <v>128</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>380</v>
@@ -12269,7 +12269,7 @@
         <v>128</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>380</v>
@@ -12280,7 +12280,7 @@
         <v>128</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>380</v>
@@ -12291,7 +12291,7 @@
         <v>128</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>380</v>
@@ -12299,21 +12299,21 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="C167" t="s" s="0">
-        <v>413</v>
+        <v>380</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>380</v>
@@ -12324,10 +12324,10 @@
         <v>152</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>380</v>
+        <v>413</v>
       </c>
     </row>
     <row r="170">
@@ -12335,7 +12335,7 @@
         <v>152</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>380</v>
@@ -12346,7 +12346,7 @@
         <v>152</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>380</v>
@@ -12357,7 +12357,7 @@
         <v>152</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>380</v>
@@ -12368,7 +12368,7 @@
         <v>152</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>380</v>
@@ -12379,7 +12379,7 @@
         <v>152</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>380</v>
@@ -12390,7 +12390,7 @@
         <v>152</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>380</v>
@@ -12401,7 +12401,7 @@
         <v>152</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>380</v>
@@ -12412,7 +12412,7 @@
         <v>152</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>380</v>
@@ -12423,7 +12423,7 @@
         <v>152</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>380</v>
@@ -12434,7 +12434,7 @@
         <v>152</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>380</v>
@@ -12445,7 +12445,7 @@
         <v>152</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>380</v>
@@ -12456,7 +12456,7 @@
         <v>152</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>380</v>
@@ -12467,7 +12467,7 @@
         <v>152</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>380</v>
@@ -12478,7 +12478,7 @@
         <v>152</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>380</v>
@@ -12489,7 +12489,7 @@
         <v>152</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>380</v>
@@ -12500,7 +12500,7 @@
         <v>152</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C185" t="s" s="0">
         <v>380</v>
@@ -12511,7 +12511,7 @@
         <v>152</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C186" t="s" s="0">
         <v>380</v>
@@ -12522,7 +12522,7 @@
         <v>152</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C187" t="s" s="0">
         <v>380</v>
@@ -12533,7 +12533,7 @@
         <v>152</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="C188" t="s" s="0">
         <v>380</v>
@@ -12544,7 +12544,7 @@
         <v>152</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C189" t="s" s="0">
         <v>380</v>
@@ -12552,21 +12552,21 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="0">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="C190" t="s" s="0">
-        <v>413</v>
+        <v>380</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="0">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C191" t="s" s="0">
         <v>380</v>
@@ -12577,10 +12577,10 @@
         <v>172</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>380</v>
+        <v>413</v>
       </c>
     </row>
     <row r="193">
@@ -12588,7 +12588,7 @@
         <v>172</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C193" t="s" s="0">
         <v>380</v>
@@ -12599,7 +12599,7 @@
         <v>172</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C194" t="s" s="0">
         <v>380</v>
@@ -12610,7 +12610,7 @@
         <v>172</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>380</v>
@@ -12621,7 +12621,7 @@
         <v>172</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>380</v>
@@ -12632,7 +12632,7 @@
         <v>172</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C197" t="s" s="0">
         <v>380</v>
@@ -12643,7 +12643,7 @@
         <v>172</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C198" t="s" s="0">
         <v>380</v>
@@ -12654,7 +12654,7 @@
         <v>172</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C199" t="s" s="0">
         <v>380</v>
@@ -12665,7 +12665,7 @@
         <v>172</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C200" t="s" s="0">
         <v>380</v>
@@ -12676,7 +12676,7 @@
         <v>172</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C201" t="s" s="0">
         <v>380</v>
@@ -12687,7 +12687,7 @@
         <v>172</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C202" t="s" s="0">
         <v>380</v>
@@ -12698,7 +12698,7 @@
         <v>172</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>380</v>
@@ -12709,10 +12709,10 @@
         <v>172</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>5</v>
+        <v>178</v>
       </c>
       <c r="C204" t="s" s="0">
-        <v>423</v>
+        <v>380</v>
       </c>
     </row>
     <row r="205">
@@ -12720,7 +12720,7 @@
         <v>172</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="C205" t="s" s="0">
         <v>380</v>
@@ -12731,32 +12731,32 @@
         <v>172</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s" s="0">
-        <v>401</v>
+        <v>423</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="0">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>195</v>
+        <v>63</v>
       </c>
       <c r="C207" t="s" s="0">
-        <v>413</v>
+        <v>380</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="0">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="C208" t="s" s="0">
-        <v>380</v>
+        <v>401</v>
       </c>
     </row>
     <row r="209">
@@ -12764,10 +12764,10 @@
         <v>186</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C209" t="s" s="0">
-        <v>380</v>
+        <v>413</v>
       </c>
     </row>
     <row r="210">
@@ -12775,10 +12775,10 @@
         <v>186</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C210" t="s" s="0">
-        <v>393</v>
+        <v>380</v>
       </c>
     </row>
     <row r="211">
@@ -12786,10 +12786,10 @@
         <v>186</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>397</v>
+        <v>380</v>
       </c>
     </row>
     <row r="212">
@@ -12797,10 +12797,10 @@
         <v>186</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C212" t="s" s="0">
-        <v>380</v>
+        <v>393</v>
       </c>
     </row>
     <row r="213">
@@ -12808,7 +12808,7 @@
         <v>186</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C213" t="s" s="0">
         <v>397</v>
@@ -12816,35 +12816,35 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="0">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="C214" t="s" s="0">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="0">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C215" t="s" s="0">
-        <v>413</v>
+        <v>397</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="0">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>203</v>
+        <v>11</v>
       </c>
       <c r="C216" t="s" s="0">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="217">
@@ -12852,10 +12852,10 @@
         <v>198</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C217" t="s" s="0">
-        <v>380</v>
+        <v>413</v>
       </c>
     </row>
     <row r="218">
@@ -12863,7 +12863,7 @@
         <v>198</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>380</v>
@@ -12874,7 +12874,7 @@
         <v>198</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C219" t="s" s="0">
         <v>380</v>
@@ -12885,7 +12885,7 @@
         <v>198</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="C220" t="s" s="0">
         <v>380</v>
@@ -12896,10 +12896,10 @@
         <v>198</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>5</v>
+        <v>199</v>
       </c>
       <c r="C221" t="s" s="0">
-        <v>424</v>
+        <v>380</v>
       </c>
     </row>
     <row r="222">
@@ -12907,7 +12907,7 @@
         <v>198</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="C222" t="s" s="0">
         <v>380</v>
@@ -12918,32 +12918,32 @@
         <v>198</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s" s="0">
-        <v>394</v>
+        <v>424</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="0">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>205</v>
+        <v>63</v>
       </c>
       <c r="C224" t="s" s="0">
-        <v>413</v>
+        <v>380</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="0">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="C225" t="s" s="0">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="226">
@@ -12951,10 +12951,10 @@
         <v>204</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>83</v>
+        <v>205</v>
       </c>
       <c r="C226" t="s" s="0">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="227">
@@ -12962,10 +12962,10 @@
         <v>204</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C227" t="s" s="0">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="228">
@@ -12973,10 +12973,10 @@
         <v>204</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C228" t="s" s="0">
-        <v>380</v>
+        <v>416</v>
       </c>
     </row>
     <row r="229">
@@ -12984,10 +12984,10 @@
         <v>204</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C229" t="s" s="0">
-        <v>409</v>
+        <v>393</v>
       </c>
     </row>
     <row r="230">
@@ -12995,7 +12995,7 @@
         <v>204</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="C230" t="s" s="0">
         <v>380</v>
@@ -13003,35 +13003,35 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="0">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C231" t="s" s="0">
-        <v>379</v>
+        <v>409</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="0">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="C232" t="s" s="0">
-        <v>413</v>
+        <v>380</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="0">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>208</v>
+        <v>70</v>
       </c>
       <c r="C233" t="s" s="0">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="234">
@@ -13039,10 +13039,10 @@
         <v>207</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C234" t="s" s="0">
-        <v>393</v>
+        <v>413</v>
       </c>
     </row>
     <row r="235">
@@ -13050,10 +13050,10 @@
         <v>207</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>39</v>
+        <v>208</v>
       </c>
       <c r="C235" t="s" s="0">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="236">
@@ -13061,10 +13061,10 @@
         <v>207</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="C236" t="s" s="0">
-        <v>380</v>
+        <v>393</v>
       </c>
     </row>
     <row r="237">
@@ -13072,10 +13072,10 @@
         <v>207</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>209</v>
+        <v>39</v>
       </c>
       <c r="C237" t="s" s="0">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="238">
@@ -13083,7 +13083,7 @@
         <v>207</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="C238" t="s" s="0">
         <v>380</v>
@@ -13091,32 +13091,32 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="0">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C239" t="s" s="0">
-        <v>413</v>
+        <v>382</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s" s="0">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>217</v>
+        <v>116</v>
       </c>
       <c r="C240" t="s" s="0">
-        <v>413</v>
+        <v>380</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="0">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C241" t="s" s="0">
         <v>413</v>
@@ -13124,13 +13124,13 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="0">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>45</v>
+        <v>217</v>
       </c>
       <c r="C242" t="s" s="0">
-        <v>402</v>
+        <v>413</v>
       </c>
     </row>
     <row r="243">
@@ -13138,29 +13138,29 @@
         <v>218</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>44</v>
+        <v>219</v>
       </c>
       <c r="C243" t="s" s="0">
-        <v>380</v>
+        <v>413</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s" s="0">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="C244" t="s" s="0">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s" s="0">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="C245" t="s" s="0">
         <v>380</v>
@@ -13171,10 +13171,10 @@
         <v>220</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="C246" t="s" s="0">
-        <v>380</v>
+        <v>413</v>
       </c>
     </row>
     <row r="247">
@@ -13182,7 +13182,7 @@
         <v>220</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>230</v>
+        <v>134</v>
       </c>
       <c r="C247" t="s" s="0">
         <v>380</v>
@@ -13193,7 +13193,7 @@
         <v>220</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>228</v>
+        <v>139</v>
       </c>
       <c r="C248" t="s" s="0">
         <v>380</v>
@@ -13204,7 +13204,7 @@
         <v>220</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="C249" t="s" s="0">
         <v>380</v>
@@ -13215,7 +13215,7 @@
         <v>220</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>132</v>
+        <v>228</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>380</v>
@@ -13226,7 +13226,7 @@
         <v>220</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>380</v>
@@ -13237,7 +13237,7 @@
         <v>220</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="C252" t="s" s="0">
         <v>380</v>
@@ -13248,7 +13248,7 @@
         <v>220</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c r="C253" t="s" s="0">
         <v>380</v>
@@ -13259,7 +13259,7 @@
         <v>220</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="C254" t="s" s="0">
         <v>380</v>
@@ -13270,7 +13270,7 @@
         <v>220</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>225</v>
+        <v>130</v>
       </c>
       <c r="C255" t="s" s="0">
         <v>380</v>
@@ -13281,7 +13281,7 @@
         <v>220</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>223</v>
+        <v>141</v>
       </c>
       <c r="C256" t="s" s="0">
         <v>380</v>
@@ -13292,7 +13292,7 @@
         <v>220</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C257" t="s" s="0">
         <v>380</v>
@@ -13303,7 +13303,7 @@
         <v>220</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C258" t="s" s="0">
         <v>380</v>
@@ -13314,7 +13314,7 @@
         <v>220</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C259" t="s" s="0">
         <v>380</v>
@@ -13325,7 +13325,7 @@
         <v>220</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C260" t="s" s="0">
         <v>380</v>
@@ -13333,21 +13333,21 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="0">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="C261" t="s" s="0">
-        <v>413</v>
+        <v>380</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="0">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="C262" t="s" s="0">
         <v>380</v>
@@ -13358,10 +13358,10 @@
         <v>268</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C263" t="s" s="0">
-        <v>392</v>
+        <v>413</v>
       </c>
     </row>
     <row r="264">
@@ -13369,10 +13369,10 @@
         <v>268</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C264" t="s" s="0">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="265">
@@ -13380,10 +13380,10 @@
         <v>268</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>39</v>
+        <v>269</v>
       </c>
       <c r="C265" t="s" s="0">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="266">
@@ -13391,10 +13391,10 @@
         <v>268</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C266" t="s" s="0">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="267">
@@ -13402,10 +13402,10 @@
         <v>268</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C267" t="s" s="0">
-        <v>380</v>
+        <v>397</v>
       </c>
     </row>
     <row r="268">
@@ -13413,10 +13413,10 @@
         <v>268</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C268" t="s" s="0">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
     <row r="269">
@@ -13424,10 +13424,10 @@
         <v>268</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C269" t="s" s="0">
-        <v>397</v>
+        <v>380</v>
       </c>
     </row>
     <row r="270">
@@ -13435,7 +13435,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>91</v>
+        <v>274</v>
       </c>
       <c r="C270" t="s" s="0">
         <v>397</v>
@@ -13443,35 +13443,35 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="0">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="C271" t="s" s="0">
-        <v>413</v>
+        <v>397</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s" s="0">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>276</v>
+        <v>91</v>
       </c>
       <c r="C272" t="s" s="0">
-        <v>413</v>
+        <v>397</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s" s="0">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="C273" t="s" s="0">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="274">
@@ -13479,10 +13479,10 @@
         <v>275</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="C274" t="s" s="0">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="275">
@@ -13490,7 +13490,7 @@
         <v>275</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>39</v>
+        <v>208</v>
       </c>
       <c r="C275" t="s" s="0">
         <v>397</v>
@@ -13501,10 +13501,10 @@
         <v>275</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="C276" t="s" s="0">
-        <v>382</v>
+        <v>397</v>
       </c>
     </row>
     <row r="277">
@@ -13512,10 +13512,10 @@
         <v>275</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>209</v>
+        <v>39</v>
       </c>
       <c r="C277" t="s" s="0">
-        <v>382</v>
+        <v>397</v>
       </c>
     </row>
     <row r="278">
@@ -13523,7 +13523,7 @@
         <v>275</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="C278" t="s" s="0">
         <v>382</v>
@@ -13531,57 +13531,57 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="0">
-        <v>234</v>
+        <v>275</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>11</v>
+        <v>209</v>
       </c>
       <c r="C279" t="s" s="0">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s" s="0">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>278</v>
+        <v>116</v>
       </c>
       <c r="C280" t="s" s="0">
-        <v>413</v>
+        <v>382</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s" s="0">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="C281" t="s" s="0">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="0">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="C282" t="s" s="0">
-        <v>379</v>
+        <v>413</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="0">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="C283" t="s" s="0">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="284">
@@ -13589,7 +13589,7 @@
         <v>235</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C284" t="s" s="0">
         <v>379</v>
@@ -13600,7 +13600,7 @@
         <v>235</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C285" t="s" s="0">
         <v>379</v>
@@ -13608,24 +13608,24 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="0">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C286" t="s" s="0">
-        <v>413</v>
+        <v>379</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s" s="0">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C287" t="s" s="0">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="288">
@@ -13633,32 +13633,32 @@
         <v>71</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C288" t="s" s="0">
-        <v>380</v>
+        <v>413</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="0">
-        <v>246</v>
+        <v>71</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="C289" t="s" s="0">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s" s="0">
-        <v>246</v>
+        <v>71</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="C290" t="s" s="0">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="291">
@@ -13666,7 +13666,7 @@
         <v>246</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>39</v>
+        <v>208</v>
       </c>
       <c r="C291" t="s" s="0">
         <v>379</v>
@@ -13677,7 +13677,7 @@
         <v>246</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="C292" t="s" s="0">
         <v>379</v>
@@ -13688,7 +13688,7 @@
         <v>246</v>
       </c>
       <c r="B293" t="s" s="0">
-        <v>209</v>
+        <v>39</v>
       </c>
       <c r="C293" t="s" s="0">
         <v>379</v>
@@ -13699,9 +13699,31 @@
         <v>246</v>
       </c>
       <c r="B294" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C294" t="s" s="0">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B295" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="C295" t="s" s="0">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B296" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="C294" t="s" s="0">
+      <c r="C296" t="s" s="0">
         <v>379</v>
       </c>
     </row>
@@ -15352,7 +15374,7 @@
         <v>29</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>46</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3">
@@ -15360,13 +15382,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>285</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
@@ -15380,7 +15402,7 @@
         <v>29</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>126</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5">
@@ -15388,13 +15410,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>288</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -15576,7 +15598,7 @@
         <v>29</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>125</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19">
@@ -15584,13 +15606,13 @@
         <v>101</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>206</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20">
@@ -15598,13 +15620,13 @@
         <v>101</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>306</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21">
@@ -15612,13 +15634,13 @@
         <v>101</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
@@ -15626,13 +15648,13 @@
         <v>101</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23">
@@ -15640,13 +15662,13 @@
         <v>101</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>311</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24">
@@ -15654,13 +15676,13 @@
         <v>101</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>290</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25">
@@ -15668,13 +15690,13 @@
         <v>101</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>313</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26">
@@ -15682,13 +15704,13 @@
         <v>101</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27">
@@ -15696,13 +15718,13 @@
         <v>101</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>197</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28">
@@ -15716,7 +15738,7 @@
         <v>29</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>318</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29">
@@ -15724,13 +15746,13 @@
         <v>101</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>95</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30">
@@ -15744,7 +15766,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>321</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -15752,13 +15774,13 @@
         <v>101</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>4</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32">
@@ -15766,13 +15788,13 @@
         <v>101</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>234</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33">
@@ -15794,13 +15816,13 @@
         <v>113</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>326</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35">
@@ -15808,13 +15830,13 @@
         <v>113</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>290</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36">
@@ -15884,7 +15906,7 @@
         <v>29</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>131</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -15898,7 +15920,7 @@
         <v>29</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42">
@@ -15912,7 +15934,7 @@
         <v>29</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>32</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43">
@@ -15926,7 +15948,7 @@
         <v>29</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44">
@@ -15968,7 +15990,7 @@
         <v>29</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>15</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47">
@@ -15982,7 +16004,7 @@
         <v>29</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48">
@@ -15996,7 +16018,7 @@
         <v>29</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>131</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -16010,7 +16032,7 @@
         <v>29</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50">
@@ -16052,7 +16074,7 @@
         <v>29</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>131</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
@@ -16060,13 +16082,13 @@
         <v>152</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>150</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
@@ -16074,7 +16096,7 @@
         <v>152</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>29</v>
@@ -16088,13 +16110,13 @@
         <v>152</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>15</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56">
@@ -16102,13 +16124,13 @@
         <v>152</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>15</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57">
@@ -16116,7 +16138,7 @@
         <v>152</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>29</v>
@@ -16130,7 +16152,7 @@
         <v>152</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>29</v>
@@ -16144,7 +16166,7 @@
         <v>152</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>29</v>
@@ -16164,7 +16186,7 @@
         <v>29</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>15</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61">
@@ -16178,7 +16200,7 @@
         <v>29</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62">
@@ -16192,7 +16214,7 @@
         <v>29</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>131</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -16206,7 +16228,7 @@
         <v>29</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64">
@@ -16220,7 +16242,7 @@
         <v>29</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65">
@@ -16234,7 +16256,7 @@
         <v>29</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>150</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
@@ -16276,7 +16298,7 @@
         <v>29</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>358</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69">
@@ -16284,13 +16306,13 @@
         <v>204</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>123</v>
+        <v>359</v>
       </c>
     </row>
     <row r="70">
@@ -16312,13 +16334,13 @@
         <v>207</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>115</v>
+        <v>361</v>
       </c>
     </row>
     <row r="72">
@@ -16326,13 +16348,13 @@
         <v>207</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>361</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73">
@@ -16368,13 +16390,13 @@
         <v>218</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="76">
@@ -16382,7 +16404,7 @@
         <v>218</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>29</v>
@@ -16410,13 +16432,13 @@
         <v>220</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>131</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
@@ -16424,13 +16446,13 @@
         <v>220</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>15</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80">
@@ -16438,7 +16460,7 @@
         <v>220</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>29</v>
@@ -16452,13 +16474,13 @@
         <v>220</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>15</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82">
@@ -16466,13 +16488,13 @@
         <v>220</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>15</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83">
@@ -16480,13 +16502,13 @@
         <v>220</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>131</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
@@ -16494,13 +16516,13 @@
         <v>220</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>131</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
@@ -19491,7 +19513,7 @@
         <v>47</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>379</v>
@@ -19508,7 +19530,7 @@
         <v>47</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>379</v>
@@ -19525,7 +19547,7 @@
         <v>47</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>379</v>
@@ -19542,7 +19564,7 @@
         <v>47</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>379</v>
@@ -19576,7 +19598,7 @@
         <v>47</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>379</v>
@@ -19593,7 +19615,7 @@
         <v>47</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>379</v>
@@ -19627,7 +19649,7 @@
         <v>47</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>379</v>
@@ -19661,7 +19683,7 @@
         <v>47</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>379</v>
@@ -19678,7 +19700,7 @@
         <v>47</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>379</v>
@@ -19712,7 +19734,7 @@
         <v>47</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E15" t="s" s="0">
         <v>379</v>
